--- a/InPut/ParadoxNet/Data.xlsx
+++ b/InPut/ParadoxNet/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E78213F-8046-4853-BF42-B194B3BF4011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="629"/>
   </bookViews>
   <sheets>
     <sheet name="LinkData" sheetId="1" r:id="rId1"/>
@@ -13,23 +12,12 @@
     <sheet name="Prob" sheetId="3" r:id="rId3"/>
     <sheet name="Para" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t xml:space="preserve">Tail </t>
   </si>
@@ -49,21 +37,78 @@
     <t>Beta</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Dummy Link</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>LinkIndex</t>
+  </si>
+  <si>
+    <t>TailNode</t>
+  </si>
+  <si>
+    <t>HeadNode</t>
+  </si>
+  <si>
+    <t>free travel time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capcity </t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
     <t>Orign</t>
   </si>
   <si>
     <t>Dest</t>
   </si>
   <si>
-    <t>Demand</t>
-  </si>
-  <si>
     <t>Node</t>
   </si>
   <si>
     <t>Scenarios</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Dof</t>
+  </si>
+  <si>
+    <t>Set 2 data</t>
+  </si>
+  <si>
     <t>NumNodes</t>
   </si>
   <si>
@@ -80,83 +125,193 @@
   </si>
   <si>
     <t>UEmaxIter</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>LinkIndex</t>
-  </si>
-  <si>
-    <t>TailNode</t>
-  </si>
-  <si>
-    <t>HeadNode</t>
-  </si>
-  <si>
-    <t>free travel time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capcity </t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Dof</t>
-  </si>
-  <si>
-    <t>Set 2 data</t>
-  </si>
-  <si>
-    <t>Dummy Link</t>
-  </si>
-  <si>
-    <t>Dummy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +324,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -180,7 +521,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -189,12 +530,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,216 +544,418 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>513349</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>56344</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4AE6E5-36F4-4755-8109-7378F07EAEC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="285750"/>
-          <a:ext cx="8009524" cy="6447619"/>
+          <a:off x="7879080" y="731520"/>
+          <a:ext cx="2788920" cy="1584960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>65569</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BCCA8A-A4D5-4A3A-9FBB-550F4EE64D6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="3252608"/>
-          <a:ext cx="5380519" cy="1500059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>225549</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>65761</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D278327A-FB9A-47B1-BE6C-D07501088AFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="0"/>
-          <a:ext cx="5340474" cy="7314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -421,47 +964,45 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>410765</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>39290</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>286271</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114576</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EAEAC1-6007-45BC-894F-6DAA0C18F8D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6482953" y="39290"/>
-          <a:ext cx="5340474" cy="7314286"/>
+          <a:off x="6789420" y="365760"/>
+          <a:ext cx="2788920" cy="1584960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -470,47 +1011,45 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>512601</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>102039</xdr:rowOff>
+      <xdr:colOff>433705</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="285750"/>
-          <a:ext cx="4341651" cy="2673789"/>
+          <a:off x="5162550" y="198120"/>
+          <a:ext cx="3519805" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -526,7 +1065,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -561,7 +1100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,26 +1133,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,23 +1168,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,26 +1338,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B8:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.6666666666667"/>
+    <col min="18" max="18" width="10.6666666666667"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6">
       <c r="C3">
         <v>1</v>
       </c>
@@ -866,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -886,9 +1392,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -900,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>9.9999999999999995E-8</v>
+        <v>1e-7</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -909,16 +1415,16 @@
         <f>10/E5</f>
         <v>100000000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="24">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -939,16 +1445,16 @@
         <f>1/E6</f>
         <v>0.02</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="24">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -969,16 +1475,16 @@
         <f>1/E7</f>
         <v>0.02</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="24">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -990,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9.9999999999999995E-8</v>
+        <v>1e-7</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -999,16 +1505,16 @@
         <f>10/E8</f>
         <v>100000000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="24">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1028,16 +1534,16 @@
       <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="24">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1057,18 +1563,18 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="3:6">
       <c r="C13">
         <v>1</v>
       </c>
@@ -1082,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1116,7 +1622,7 @@
       </c>
       <c r="E15">
         <f>E5</f>
-        <v>9.9999999999999995E-8</v>
+        <v>1e-7</v>
       </c>
       <c r="F15">
         <f>F5</f>
@@ -1126,12 +1632,31 @@
         <f>G5</f>
         <v>100000000</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="24">
         <f>H5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23">
+        <v>1</v>
+      </c>
+      <c r="O15" s="23">
+        <v>2</v>
+      </c>
+      <c r="P15" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>4</v>
+      </c>
+      <c r="R15" s="23">
+        <v>5</v>
+      </c>
+      <c r="S15" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1155,12 +1680,31 @@
         <f t="shared" ref="G16:G21" si="3">G6</f>
         <v>0.02</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="24">
         <f t="shared" ref="H16:H21" si="4">H6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17">
         <v>2</v>
       </c>
@@ -1184,12 +1728,36 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="23">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23">
+        <v>0</v>
+      </c>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1e-7</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <v>50000000</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1203,7 +1771,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>9.9999999999999995E-8</v>
+        <v>1e-7</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -1213,12 +1781,36 @@
         <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="23">
+        <v>0</v>
+      </c>
+      <c r="O18" s="23">
+        <v>3</v>
+      </c>
+      <c r="P18" s="23">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>1</v>
+      </c>
+      <c r="R18" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="S18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1242,14 +1834,38 @@
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>30</v>
+      <c r="L19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="23">
+        <v>2</v>
+      </c>
+      <c r="N19" s="23">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>1e-7</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>1</v>
+      </c>
+      <c r="R19" s="23">
+        <v>50000000</v>
+      </c>
+      <c r="S19" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1274,18 +1890,90 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="23">
+        <v>3</v>
+      </c>
+      <c r="N20" s="23">
+        <v>3</v>
+      </c>
+      <c r="O20" s="23">
+        <v>4</v>
+      </c>
+      <c r="P20" s="23">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1</v>
+      </c>
+      <c r="R20" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="S20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="L21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="23">
+        <v>4</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2</v>
+      </c>
+      <c r="O21" s="23">
+        <v>5</v>
+      </c>
+      <c r="P21" s="23">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>1</v>
+      </c>
+      <c r="R21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="S21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19">
+      <c r="H22" s="24"/>
+      <c r="L22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="23">
+        <v>5</v>
+      </c>
+      <c r="N22" s="23">
+        <v>4</v>
+      </c>
+      <c r="O22" s="23">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>1e-7</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>1</v>
+      </c>
+      <c r="R22" s="23">
+        <v>100000000</v>
+      </c>
+      <c r="S22" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
       <c r="C23">
         <f t="shared" ref="C23:H23" si="7">C10-1</f>
         <v>0</v>
@@ -1310,144 +1998,168 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="L23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="23">
+        <v>6</v>
+      </c>
+      <c r="N23" s="23">
+        <v>2</v>
+      </c>
+      <c r="O23" s="23">
+        <v>4</v>
+      </c>
+      <c r="P23" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
+    <row r="26" spans="3:10">
+      <c r="C26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
         <v>2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="26">
         <v>10</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="26">
         <v>100</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="26">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="26">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="26">
         <v>3</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="26">
         <v>10</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="26">
         <v>20</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="26">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="26">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="26">
         <v>4</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="26">
         <v>10</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="26">
         <v>60</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="26">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26">
+        <v>10</v>
+      </c>
+      <c r="G29" s="26">
+        <v>10</v>
+      </c>
+      <c r="H29" s="26">
+        <f>P25</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" ht="15.15" spans="3:10">
+      <c r="C30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="28">
+        <v>1</v>
+      </c>
+      <c r="E30" s="28">
+        <v>4</v>
+      </c>
+      <c r="F30" s="28">
+        <v>10</v>
+      </c>
+      <c r="G30" s="28">
         <v>20</v>
       </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>3</v>
-      </c>
-      <c r="F29" s="8">
-        <v>10</v>
-      </c>
-      <c r="G29" s="8">
-        <v>10</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="H30" s="28">
         <f>P25</f>
         <v>0</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>4</v>
-      </c>
-      <c r="F30" s="10">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10">
-        <v>20</v>
-      </c>
-      <c r="H30" s="10">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1455,33 +2167,56 @@
     <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="C6:F14"/>
+  <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:10">
+      <c r="H3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="8:10">
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>5</v>
+      </c>
+      <c r="J4" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7">
         <v>0</v>
       </c>
@@ -1495,18 +2230,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6">
       <c r="D13" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
       <c r="C14">
         <v>0</v>
       </c>
@@ -1524,12 +2259,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C6:R35"/>
   <sheetViews>
@@ -1537,18 +2273,18 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9">
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="4:12">
       <c r="D7" s="2"/>
       <c r="E7" s="3">
         <v>0</v>
@@ -1567,108 +2303,108 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="27" t="s">
+    <row r="8" ht="15.6" spans="3:12">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" ht="15.6" spans="3:12">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" ht="15.6" spans="3:12">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" ht="15.6" spans="3:12">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" ht="15.6" spans="4:12">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="27"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="27"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
+    </row>
+    <row r="16" spans="5:11">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="4:18">
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1713,39 +2449,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
+    <row r="18" ht="15.6" spans="3:18">
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
         <v>0.15</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <f>E18</f>
         <v>0.15</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <f t="shared" ref="G18:I18" si="0">F18</f>
         <v>0.15</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5"/>
       <c r="M18">
         <v>1</v>
       </c>
@@ -1765,33 +2501,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="15">
+    <row r="19" ht="15.6" spans="3:18">
+      <c r="C19" s="4"/>
+      <c r="D19" s="10">
         <v>0.2</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="10">
         <v>0.2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="10">
         <v>0.2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="10">
         <v>0.2</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="10">
         <v>0.2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="10">
         <v>0.2</v>
       </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5"/>
       <c r="M19">
         <v>1</v>
       </c>
@@ -1811,33 +2547,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="27"/>
-      <c r="D20" s="12">
+    <row r="20" ht="15.6" spans="3:18">
+      <c r="C20" s="4"/>
+      <c r="D20" s="8">
         <v>0.4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <v>0.2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <v>0.2</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <v>0.2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <v>0.2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8">
         <v>0.2</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
       <c r="M20">
         <v>0</v>
       </c>
@@ -1857,33 +2593,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="27"/>
-      <c r="D21" s="12">
+    <row r="21" ht="15.6" spans="3:18">
+      <c r="C21" s="4"/>
+      <c r="D21" s="8">
         <v>0.6</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <v>0.2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>0.2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>0.2</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>0.2</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>0.2</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
       <c r="M21">
         <v>0</v>
       </c>
@@ -1903,32 +2639,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="15">
+    <row r="22" ht="15.6" spans="4:18">
+      <c r="D22" s="10">
         <v>0.8</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <v>0.2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="10">
         <v>0.2</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="10">
         <v>0.2</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="10">
         <v>0.2</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="10">
         <v>0.2</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5"/>
       <c r="M22">
         <v>-1</v>
       </c>
@@ -1948,82 +2684,82 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="14">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E23" s="13">
+    <row r="23" ht="15.6" spans="4:11">
+      <c r="D23" s="11">
+        <v>0.9999</v>
+      </c>
+      <c r="E23" s="9">
         <v>0.05</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>0.05</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>0.05</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
         <v>0.05</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>0.05</v>
       </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="11">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="12">
         <f>SUM(E18:E23)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="12">
         <f>SUM(F18:F23)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <f>SUM(G18:G23)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="12">
         <f>SUM(H18:H23)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="12">
         <f>SUM(I18:I23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="26" t="s">
+    <row r="27" spans="4:9">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="18">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
         <v>2</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>3</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="15">
         <v>4</v>
       </c>
       <c r="J28" s="3">
@@ -2033,249 +2769,251 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
+    <row r="29" ht="15.6" spans="3:11">
+      <c r="C29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
         <v>0.35</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>0.35</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0.35</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>0.35</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>0.35</v>
       </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
-      <c r="D30" s="21">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="3:11">
+      <c r="C30" s="16"/>
+      <c r="D30" s="19">
         <v>0.3</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>0.3</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <v>0.3</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <v>0.3</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <v>0.3</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="19">
         <v>0.3</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
-      <c r="D31" s="19">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="3:11">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17">
         <v>0.6</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>0.3</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>0.3</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="17">
         <v>0.3</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <v>0.3</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="17">
         <v>0.3</v>
       </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="25"/>
-      <c r="D32" s="22">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E32" s="20">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="3:11">
+      <c r="C32" s="16"/>
+      <c r="D32" s="20">
+        <v>0.9999</v>
+      </c>
+      <c r="E32" s="18">
         <v>0.05</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>0.05</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>0.05</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>0.05</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>0.05</v>
       </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="16"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="23">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="3:11">
+      <c r="C33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="3:11">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="21">
         <f>SUM(E29:E33)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="21">
         <f>SUM(F29:F33)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="21">
         <f>SUM(G29:G33)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <f>SUM(H29:H33)</f>
         <v>1</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="21">
         <f>SUM(I29:I33)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1e-6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/InPut/ParadoxNet/Data.xlsx
+++ b/InPut/ParadoxNet/Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b65daf0cb38b9458/InPut/InPut/ParadoxNet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_14FBCF764FB0FEA08D768558BAA19D00CC06B384" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07209CC7-3217-4E50-9D80-1AC84AD8BBF4}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="629"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkData" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,23 @@
     <sheet name="Prob" sheetId="3" r:id="rId3"/>
     <sheet name="Para" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t xml:space="preserve">Tail </t>
   </si>
@@ -61,6 +78,9 @@
     <t>g</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>LinkIndex</t>
   </si>
   <si>
@@ -74,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">Capcity </t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>O</t>
@@ -130,20 +153,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,167 +170,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,194 +192,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -548,253 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,16 +245,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -822,8 +259,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,123 +268,139 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7879080" y="731520"/>
-          <a:ext cx="2788920" cy="1584960"/>
+          <a:off x="5133975" y="828675"/>
+          <a:ext cx="2720340" cy="1645920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9140190" y="784860"/>
+          <a:ext cx="2703195" cy="1653540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,7 +417,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -980,13 +433,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1011,7 +470,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1027,13 +486,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1065,7 +530,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1338,27 +803,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.6666666666667"/>
-    <col min="18" max="18" width="10.6666666666667"/>
+    <col min="16" max="16" width="10.7109375"/>
+    <col min="18" max="18" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="1:19">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1372,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="1:19">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1e-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1415,14 +881,14 @@
         <f>10/E5</f>
         <v>100000000</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1445,14 +911,14 @@
         <f>1/E6</f>
         <v>0.02</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1475,14 +941,14 @@
         <f>1/E7</f>
         <v>0.02</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>1e-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1505,14 +971,14 @@
         <f>10/E8</f>
         <v>100000000</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1534,15 +1000,15 @@
       <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="20">
         <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -1563,18 +1029,18 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="3:6">
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="27"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="C13">
         <v>1</v>
       </c>
@@ -1588,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="1:19">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="1:19">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1622,7 +1088,7 @@
       </c>
       <c r="E15">
         <f>E5</f>
-        <v>1e-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F15">
         <f>F5</f>
@@ -1632,31 +1098,31 @@
         <f>G5</f>
         <v>100000000</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="20">
         <f>H5</f>
         <v>1</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23">
-        <v>1</v>
-      </c>
-      <c r="O15" s="23">
-        <v>2</v>
-      </c>
-      <c r="P15" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
         <v>4</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="1">
         <v>5</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="1:19">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1669,42 +1135,42 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E21" si="1">E6</f>
+        <f t="shared" ref="E16:E20" si="1">E6</f>
         <v>50</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F21" si="2">F6</f>
+        <f t="shared" ref="F16:F20" si="2">F6</f>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G21" si="3">G6</f>
+        <f t="shared" ref="G16:G20" si="3">G6</f>
         <v>0.02</v>
       </c>
-      <c r="H16" s="24">
-        <f t="shared" ref="H16:H21" si="4">H6</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" s="23" t="s">
+      <c r="H16" s="20">
+        <f t="shared" ref="H16:H19" si="4">H6</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="1:19">
       <c r="B17">
         <v>2</v>
       </c>
@@ -1728,36 +1194,36 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
-      <c r="N17" s="23">
-        <v>0</v>
-      </c>
-      <c r="O17" s="23">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1e-7</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>1</v>
-      </c>
-      <c r="R17" s="23">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
         <v>50000000</v>
       </c>
-      <c r="S17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="S17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="B18">
         <v>3</v>
       </c>
@@ -1771,7 +1237,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>1e-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -1781,36 +1247,36 @@
         <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="23">
-        <v>1</v>
-      </c>
-      <c r="N18" s="23">
-        <v>0</v>
-      </c>
-      <c r="O18" s="23">
-        <v>3</v>
-      </c>
-      <c r="P18" s="23">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
         <v>25</v>
       </c>
-      <c r="Q18" s="23">
-        <v>1</v>
-      </c>
-      <c r="R18" s="23">
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
         <v>0.02</v>
       </c>
-      <c r="S18" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="S18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1834,37 +1300,37 @@
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="23">
-        <v>2</v>
-      </c>
-      <c r="N19" s="23">
-        <v>1</v>
-      </c>
-      <c r="O19" s="23">
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>2</v>
       </c>
       <c r="P19">
-        <v>1e-7</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>1</v>
-      </c>
-      <c r="R19" s="23">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
         <v>50000000</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -1890,90 +1356,90 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="20">
         <v>4</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="23">
-        <v>3</v>
-      </c>
-      <c r="N20" s="23">
-        <v>3</v>
-      </c>
-      <c r="O20" s="23">
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="1">
         <v>25</v>
       </c>
-      <c r="Q20" s="23">
-        <v>1</v>
-      </c>
-      <c r="R20" s="23">
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
         <v>0.02</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="22"/>
-      <c r="H21" s="24"/>
-      <c r="L21" s="23" t="s">
+      <c r="A21" s="27"/>
+      <c r="H21" s="20"/>
+      <c r="L21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="1">
         <v>4</v>
       </c>
-      <c r="N21" s="23">
-        <v>2</v>
-      </c>
-      <c r="O21" s="23">
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
         <v>5</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="1">
         <v>50</v>
       </c>
-      <c r="Q21" s="23">
-        <v>1</v>
-      </c>
-      <c r="R21" s="23">
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
         <v>0.02</v>
       </c>
-      <c r="S21" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="8:19">
-      <c r="H22" s="24"/>
-      <c r="L22" s="23" t="s">
+      <c r="S21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="H22" s="20"/>
+      <c r="L22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="1">
         <v>5</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="1">
         <v>4</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="1">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>1e-7</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>1</v>
-      </c>
-      <c r="R22" s="23">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
         <v>100000000</v>
       </c>
-      <c r="S22" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19">
+      <c r="S22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="C23">
         <f t="shared" ref="C23:H23" si="7">C10-1</f>
         <v>0</v>
@@ -1998,168 +1464,217 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="1">
         <v>6</v>
       </c>
-      <c r="N23" s="23">
-        <v>2</v>
-      </c>
-      <c r="O23" s="23">
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
         <v>4</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="1">
         <v>10</v>
       </c>
-      <c r="Q23" s="23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="23">
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
         <v>0.1</v>
       </c>
-      <c r="S23" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="25" t="s">
+      <c r="S23" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="H24" s="20"/>
+      <c r="L24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="M24" s="25">
+        <v>7</v>
+      </c>
+      <c r="N24" s="25">
+        <v>1</v>
+      </c>
+      <c r="O24" s="25">
+        <v>4</v>
+      </c>
+      <c r="P24" s="25">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>1</v>
+      </c>
+      <c r="R24" s="25">
+        <v>50000000</v>
+      </c>
+      <c r="S24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="C25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="25" t="s">
+      <c r="L25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="25">
+        <v>8</v>
+      </c>
+      <c r="N25" s="25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>1</v>
+      </c>
+      <c r="R25" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="C26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="26">
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22">
+        <v>2</v>
+      </c>
+      <c r="F26" s="22">
         <v>10</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="22">
         <v>100</v>
       </c>
-      <c r="H26" s="26">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="25" t="s">
+      <c r="H26" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="C27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="26">
-        <v>2</v>
-      </c>
-      <c r="E27" s="26">
-        <v>3</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="D27" s="22">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22">
+        <v>3</v>
+      </c>
+      <c r="F27" s="22">
         <v>10</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="22">
         <v>20</v>
       </c>
-      <c r="H27" s="26">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="25" t="s">
+      <c r="H27" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="C28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="26">
-        <v>2</v>
-      </c>
-      <c r="E28" s="26">
+      <c r="D28" s="22">
+        <v>2</v>
+      </c>
+      <c r="E28" s="22">
         <v>4</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="22">
         <v>10</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="22">
         <v>60</v>
       </c>
-      <c r="H28" s="26">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29" s="25" t="s">
+      <c r="H28" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="C29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="26">
-        <v>1</v>
-      </c>
-      <c r="E29" s="26">
-        <v>3</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22">
+        <v>3</v>
+      </c>
+      <c r="F29" s="22">
         <v>10</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="22">
         <v>10</v>
       </c>
-      <c r="H29" s="26">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" ht="15.15" spans="3:10">
-      <c r="C30" s="27" t="s">
+      <c r="H29" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="C30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="28">
-        <v>1</v>
-      </c>
-      <c r="E30" s="28">
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
         <v>4</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="24">
         <v>10</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="24">
         <v>20</v>
       </c>
-      <c r="H30" s="28">
-        <f>P25</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="H30" s="24" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2167,56 +1682,55 @@
     <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="8:10">
-      <c r="H3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="23" t="s">
+    <row r="3" spans="3:10">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="8:10">
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="3:10">
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7">
         <v>0</v>
       </c>
@@ -2230,18 +1744,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="3:10">
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14">
         <v>0</v>
       </c>
@@ -2259,13 +1773,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C6:R35"/>
   <sheetViews>
@@ -2273,18 +1786,18 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="5:9">
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="4:12">
+    <row r="6" spans="3:12">
+      <c r="E6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="3:12">
       <c r="D7" s="2"/>
       <c r="E7" s="3">
         <v>0</v>
@@ -2303,78 +1816,78 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" ht="15.6" spans="3:12">
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" ht="15.6" spans="3:12">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" ht="15.6" spans="3:12">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" ht="15.6" spans="3:12">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" ht="15.6" spans="4:12">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="15" spans="5:9">
+    <row r="8" spans="3:12" ht="15.75">
+      <c r="C8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="3:12" ht="15.75">
+      <c r="C9" s="29"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="3:12" ht="15.75">
+      <c r="C10" s="29"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="3:12" ht="15.75">
+      <c r="C11" s="29"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="3:12" ht="15.75">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="15" spans="3:12">
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -2391,22 +1904,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="5:11">
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="4:18">
+    <row r="16" spans="3:12">
+      <c r="E16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="3:18">
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2449,39 +1962,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="3:18">
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
+    <row r="18" spans="3:18" ht="15.75">
+      <c r="C18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
         <v>0.15</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f>E18</f>
         <v>0.15</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" ref="G18:I18" si="0">F18</f>
         <v>0.15</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5"/>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18">
         <v>1</v>
       </c>
@@ -2501,33 +2014,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="3:18">
-      <c r="C19" s="4"/>
-      <c r="D19" s="10">
+    <row r="19" spans="3:18" ht="15.75">
+      <c r="C19" s="29"/>
+      <c r="D19" s="9">
         <v>0.2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>0.2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.2</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>0.2</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>0.2</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5"/>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19">
         <v>1</v>
       </c>
@@ -2547,33 +2060,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="3:18">
-      <c r="C20" s="4"/>
-      <c r="D20" s="8">
+    <row r="20" spans="3:18" ht="15.75">
+      <c r="C20" s="29"/>
+      <c r="D20" s="7">
         <v>0.4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>0.2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>0.2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>0.2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>0.2</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4"/>
       <c r="M20">
         <v>0</v>
       </c>
@@ -2593,33 +2106,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="3:18">
-      <c r="C21" s="4"/>
-      <c r="D21" s="8">
+    <row r="21" spans="3:18" ht="15.75">
+      <c r="C21" s="29"/>
+      <c r="D21" s="7">
         <v>0.6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.2</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0.2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.2</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
       <c r="M21">
         <v>0</v>
       </c>
@@ -2639,32 +2152,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="4:18">
-      <c r="D22" s="10">
+    <row r="22" spans="3:18" ht="15.75">
+      <c r="D22" s="9">
         <v>0.8</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>0.2</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>0.2</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5"/>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4"/>
       <c r="M22">
         <v>-1</v>
       </c>
@@ -2684,82 +2197,82 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="4:11">
-      <c r="D23" s="11">
-        <v>0.9999</v>
-      </c>
-      <c r="E23" s="9">
+    <row r="23" spans="3:18" ht="15.75">
+      <c r="D23" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E23" s="8">
         <v>0.05</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>0.05</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.05</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>0.05</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>0.05</v>
       </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" s="12">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="E24" s="11">
         <f>SUM(E18:E23)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f>SUM(F18:F23)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f>SUM(G18:G23)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f>SUM(H18:H23)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>SUM(I18:I23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:9">
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>2</v>
-      </c>
-      <c r="H28" s="15">
-        <v>3</v>
-      </c>
-      <c r="I28" s="15">
+    <row r="27" spans="3:18">
+      <c r="D27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
+      <c r="I28" s="14">
         <v>4</v>
       </c>
       <c r="J28" s="3">
@@ -2769,187 +2282,186 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="3:11">
-      <c r="C29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
+    <row r="29" spans="3:18" ht="15.75">
+      <c r="C29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>0.35</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>0.35</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>0.35</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>0.35</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <v>0.35</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="3:11">
-      <c r="C30" s="16"/>
-      <c r="D30" s="19">
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="15.75">
+      <c r="C30" s="30"/>
+      <c r="D30" s="17">
         <v>0.3</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>0.3</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>0.3</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>0.3</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <v>0.3</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="17">
         <v>0.3</v>
       </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="3:11">
-      <c r="C31" s="16"/>
-      <c r="D31" s="17">
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" ht="15.75">
+      <c r="C31" s="30"/>
+      <c r="D31" s="15">
         <v>0.6</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>0.3</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>0.3</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>0.3</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>0.3</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>0.3</v>
       </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.6" spans="3:11">
-      <c r="C32" s="16"/>
-      <c r="D32" s="20">
-        <v>0.9999</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="15.75">
+      <c r="C32" s="30"/>
+      <c r="D32" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E32" s="16">
         <v>0.05</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>0.05</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>0.05</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>0.05</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <v>0.05</v>
       </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.6" spans="3:11">
-      <c r="C33" s="13"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.6" spans="3:11">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="21">
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="15.75">
+      <c r="C33" s="12"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="15.75">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="19">
         <f>SUM(E29:E33)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <f>SUM(F29:F33)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="19">
         <f>SUM(G29:G33)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="19">
         <f>SUM(H29:H33)</f>
         <v>1</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <f>SUM(I29:I33)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="D27:I27"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C5:D10"/>
   <sheetViews>
@@ -2957,15 +2469,15 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="17.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2973,7 +2485,7 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2981,7 +2493,7 @@
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -2989,23 +2501,23 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>1e-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -3013,7 +2525,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/InPut/ParadoxNet/Data.xlsx
+++ b/InPut/ParadoxNet/Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b65daf0cb38b9458/InPut/InPut/ParadoxNet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\ParadoxNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_14FBCF764FB0FEA08D768558BAA19D00CC06B384" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07209CC7-3217-4E50-9D80-1AC84AD8BBF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20E7242-57FC-4C05-9522-EC85F5F7D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkData" sheetId="1" r:id="rId1"/>
     <sheet name="DemanData" sheetId="2" r:id="rId2"/>
     <sheet name="Prob" sheetId="3" r:id="rId3"/>
     <sheet name="Para" sheetId="4" r:id="rId4"/>
+    <sheet name="FailureLinks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t xml:space="preserve">Tail </t>
   </si>
@@ -148,6 +149,15 @@
   </si>
   <si>
     <t>UEmaxIter</t>
+  </si>
+  <si>
+    <t>LinkID</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -155,15 +165,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,22 +262,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,14 +285,14 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -283,11 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,9 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +830,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -1789,13 +1807,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="3:12">
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="3:12">
       <c r="D7" s="2"/>
@@ -1817,7 +1835,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="3:12" ht="15.75">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4">
@@ -1841,7 +1859,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="3:12" ht="15.75">
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1853,7 +1871,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="3:12" ht="15.75">
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -1865,7 +1883,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="3:12" ht="15.75">
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1905,13 +1923,13 @@
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="27" t="s">
         <v>29</v>
       </c>
@@ -1963,7 +1981,7 @@
       </c>
     </row>
     <row r="18" spans="3:18" ht="15.75">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="7">
@@ -2015,7 +2033,7 @@
       </c>
     </row>
     <row r="19" spans="3:18" ht="15.75">
-      <c r="C19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="9">
         <v>0.2</v>
       </c>
@@ -2061,7 +2079,7 @@
       </c>
     </row>
     <row r="20" spans="3:18" ht="15.75">
-      <c r="C20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="7">
         <v>0.4</v>
       </c>
@@ -2107,7 +2125,7 @@
       </c>
     </row>
     <row r="21" spans="3:18" ht="15.75">
-      <c r="C21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="7">
         <v>0.6</v>
       </c>
@@ -2246,14 +2264,14 @@
       </c>
     </row>
     <row r="27" spans="3:18">
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="3:18">
       <c r="C28" s="12"/>
@@ -2283,7 +2301,7 @@
       </c>
     </row>
     <row r="29" spans="3:18" ht="15.75">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="15">
@@ -2312,7 +2330,7 @@
       </c>
     </row>
     <row r="30" spans="3:18" ht="15.75">
-      <c r="C30" s="30"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="17">
         <v>0.3</v>
       </c>
@@ -2339,7 +2357,7 @@
       </c>
     </row>
     <row r="31" spans="3:18" ht="15.75">
-      <c r="C31" s="30"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="15">
         <v>0.6</v>
       </c>
@@ -2366,7 +2384,7 @@
       </c>
     </row>
     <row r="32" spans="3:18" ht="15.75">
-      <c r="C32" s="30"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="18">
         <v>0.99990000000000001</v>
       </c>
@@ -2527,4 +2545,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BD4DD-F3DB-4C22-B733-302E4C5F63C6}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A1&amp;","&amp;B1&amp;","&amp;C1</f>
+        <v>LinkID,Length,Res</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="0">A2&amp;","&amp;B2&amp;","&amp;C2</f>
+        <v>3,2,1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>5,2,1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>6,2,1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>7,2,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>8,2,1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InPut/ParadoxNet/Data.xlsx
+++ b/InPut/ParadoxNet/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\LinJuanJuan\InPut\ParadoxNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20E7242-57FC-4C05-9522-EC85F5F7D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DD01A-E654-4830-8AE3-1D6E1592D75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkData" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -315,7 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,16 +836,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375"/>
-    <col min="18" max="18" width="10.7109375"/>
+    <col min="16" max="16" width="10.6640625"/>
+    <col min="18" max="18" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19">
@@ -1026,7 +1032,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -1052,7 +1058,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:19">
@@ -1348,7 +1354,7 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B20">
@@ -1380,30 +1386,30 @@
       <c r="L20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="1">
-        <v>3</v>
-      </c>
-      <c r="N20" s="1">
-        <v>3</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="M20" s="27">
+        <v>3</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
+      <c r="O20" s="27">
         <v>4</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="27">
         <v>25</v>
       </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="Q20" s="27">
+        <v>1</v>
+      </c>
+      <c r="R20" s="27">
         <v>0.02</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="H21" s="20"/>
       <c r="L21" s="1" t="s">
         <v>10</v>
@@ -1713,7 +1719,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="3:10">
       <c r="H3" s="1" t="s">
@@ -1804,16 +1810,16 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="6" spans="3:12">
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="3:12">
       <c r="D7" s="2"/>
@@ -1834,8 +1840,8 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="3:12" ht="15.75">
-      <c r="C8" s="30" t="s">
+    <row r="8" spans="3:12" ht="15.6">
+      <c r="C8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4">
@@ -1858,8 +1864,8 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="3:12" ht="15.75">
-      <c r="C9" s="30"/>
+    <row r="9" spans="3:12" ht="15.6">
+      <c r="C9" s="32"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1870,8 +1876,8 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="3:12" ht="15.75">
-      <c r="C10" s="30"/>
+    <row r="10" spans="3:12" ht="15.6">
+      <c r="C10" s="32"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
@@ -1882,8 +1888,8 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="3:12" ht="15.75">
-      <c r="C11" s="30"/>
+    <row r="11" spans="3:12" ht="15.6">
+      <c r="C11" s="32"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1894,7 +1900,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="3:12" ht="15.75">
+    <row r="12" spans="3:12" ht="15.6">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1923,17 +1929,17 @@
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="27" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="3:18">
       <c r="D17" s="2" t="s">
@@ -1980,8 +1986,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="15.75">
-      <c r="C18" s="30" t="s">
+    <row r="18" spans="3:18" ht="15.6">
+      <c r="C18" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="7">
@@ -2032,8 +2038,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="15.75">
-      <c r="C19" s="30"/>
+    <row r="19" spans="3:18" ht="15.6">
+      <c r="C19" s="32"/>
       <c r="D19" s="9">
         <v>0.2</v>
       </c>
@@ -2078,8 +2084,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="15.75">
-      <c r="C20" s="30"/>
+    <row r="20" spans="3:18" ht="15.6">
+      <c r="C20" s="32"/>
       <c r="D20" s="7">
         <v>0.4</v>
       </c>
@@ -2124,8 +2130,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.75">
-      <c r="C21" s="30"/>
+    <row r="21" spans="3:18" ht="15.6">
+      <c r="C21" s="32"/>
       <c r="D21" s="7">
         <v>0.6</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="15.75">
+    <row r="22" spans="3:18" ht="15.6">
       <c r="D22" s="9">
         <v>0.8</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="15.75">
+    <row r="23" spans="3:18" ht="15.6">
       <c r="D23" s="10">
         <v>0.99990000000000001</v>
       </c>
@@ -2264,14 +2270,14 @@
       </c>
     </row>
     <row r="27" spans="3:18">
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="3:18">
       <c r="C28" s="12"/>
@@ -2300,8 +2306,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:18" ht="15.75">
-      <c r="C29" s="28" t="s">
+    <row r="29" spans="3:18" ht="15.6">
+      <c r="C29" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="15">
@@ -2329,8 +2335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:18" ht="15.75">
-      <c r="C30" s="28"/>
+    <row r="30" spans="3:18" ht="15.6">
+      <c r="C30" s="30"/>
       <c r="D30" s="17">
         <v>0.3</v>
       </c>
@@ -2356,8 +2362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:18" ht="15.75">
-      <c r="C31" s="28"/>
+    <row r="31" spans="3:18" ht="15.6">
+      <c r="C31" s="30"/>
       <c r="D31" s="15">
         <v>0.6</v>
       </c>
@@ -2383,8 +2389,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:18" ht="15.75">
-      <c r="C32" s="28"/>
+    <row r="32" spans="3:18" ht="15.6">
+      <c r="C32" s="30"/>
       <c r="D32" s="18">
         <v>0.99990000000000001</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="15.75">
+    <row r="33" spans="3:11" ht="15.6">
       <c r="C33" s="12"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -2425,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="15.75">
+    <row r="34" spans="3:11" ht="15.6">
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2487,10 +2493,10 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4">
@@ -2551,20 +2557,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BD4DD-F3DB-4C22-B733-302E4C5F63C6}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E1" t="str">
